--- a/biology/Zoologie/Forme_(zoologie)/Forme_(zoologie).xlsx
+++ b/biology/Zoologie/Forme_(zoologie)/Forme_(zoologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En zoologie, le mot forme (forma en latin) est un terme strictement informel parfois utilisé pour décrire des organismes. Selon le Code international de nomenclature zoologique, ce terme n'a aucune valeur (il n'est pas accepté)[1]. En d'autres termes, bien que les noms de formes soient latins et qu'ils soient parfois ajoutés à tort à un nom binominal, dans un contexte zoologique, les formes n'ont aucune signification taxinomique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En zoologie, le mot forme (forma en latin) est un terme strictement informel parfois utilisé pour décrire des organismes. Selon le Code international de nomenclature zoologique, ce terme n'a aucune valeur (il n'est pas accepté). En d'autres termes, bien que les noms de formes soient latins et qu'ils soient parfois ajoutés à tort à un nom binominal, dans un contexte zoologique, les formes n'ont aucune signification taxinomique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Utilisation du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains zoologistes utilisent la forme pour décrire des variations morphologiques chez les animaux, en particulier les insectes, dans le cadre d'une série de termes et d'abréviations annexés au nom binomial ou trinominal. De nombreux spécimens types peuvent être décrits, mais aucun ne doit être considéré comme absolu, inconditionnel ou catégorique. Les formes n'ont pas de statut officiel, bien qu'elles soient parfois utiles pour décrire des clines altitudinales ou géographiques. Contrairement au polymorphisme génétique, une sous-population est généralement constituée d'une seule forme à un moment donné.
 forma geographica - f. geogr. : si elle est utilisée, elle désigne aujourd'hui généralement une partie d'un cline ; par exemple pour les intergrades entre sous-espèces dans leur zone de contact ;
